--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.290817904493467</v>
+        <v>-0.01758111206922311</v>
       </c>
       <c r="C2">
-        <v>0.3981820955065398</v>
+        <v>-0.9703086835434362</v>
       </c>
       <c r="D2">
-        <v>0.7491787168735993</v>
+        <v>-1.190204369659767</v>
       </c>
       <c r="E2">
-        <v>0.9891820955065338</v>
+        <v>0.851657034662153</v>
       </c>
       <c r="F2">
-        <v>0.5001820955065437</v>
+        <v>1.077585438625931</v>
       </c>
       <c r="G2">
-        <v>0.0491820955065361</v>
+        <v>-0.1996304584251192</v>
       </c>
       <c r="H2">
-        <v>0.1291820955065344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1134005067055028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.5381820955065417</v>
+        <v>-0.8029421940374804</v>
       </c>
       <c r="C3">
-        <v>0.8891787168736012</v>
+        <v>-1.022837880153811</v>
       </c>
       <c r="D3">
-        <v>1.129182095506536</v>
+        <v>1.019023524168109</v>
       </c>
       <c r="E3">
-        <v>0.6401820955065456</v>
+        <v>1.244951928131887</v>
       </c>
       <c r="F3">
-        <v>0.189182095506538</v>
+        <v>-0.0322639689191633</v>
       </c>
       <c r="G3">
-        <v>0.2691820955065363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.2807669962114587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8842787168735978</v>
+        <v>-0.7936197797752114</v>
       </c>
       <c r="C4">
-        <v>1.124282095506532</v>
+        <v>1.248241624546709</v>
       </c>
       <c r="D4">
-        <v>0.6352820955065421</v>
+        <v>1.474170028510487</v>
       </c>
       <c r="E4">
-        <v>0.1842820955065346</v>
+        <v>0.1969541314594366</v>
       </c>
       <c r="F4">
-        <v>0.2642820955065329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.5099850965900585</v>
+      </c>
+      <c r="G4">
+        <v>0.007569982732279296</v>
+      </c>
+      <c r="H4">
+        <v>0.6592032301411037</v>
+      </c>
+      <c r="I4">
+        <v>0.4663036110991228</v>
+      </c>
+      <c r="J4">
+        <v>-0.04443783748577212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>2.154282433369826</v>
+        <v>2.484163736993811</v>
       </c>
       <c r="C5">
-        <v>1.665282433369836</v>
+        <v>2.710092140957589</v>
       </c>
       <c r="D5">
-        <v>1.214282433369828</v>
+        <v>1.432876243906539</v>
       </c>
       <c r="E5">
-        <v>1.294282433369826</v>
+        <v>1.745907209037161</v>
       </c>
       <c r="F5">
-        <v>1.314282433369837</v>
+        <v>1.243492095179382</v>
       </c>
       <c r="G5">
-        <v>1.414282433369831</v>
+        <v>1.895125342588206</v>
       </c>
       <c r="H5">
-        <v>1.314282433369837</v>
+        <v>1.702225723546225</v>
       </c>
       <c r="I5">
-        <v>1.094280845740254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.19148427496133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.8662824333698367</v>
+        <v>1.371380565536508</v>
       </c>
       <c r="C6">
-        <v>0.4152824333698291</v>
+        <v>0.09416466848545757</v>
       </c>
       <c r="D6">
-        <v>0.4952824333698274</v>
+        <v>0.4071956336160796</v>
       </c>
       <c r="E6">
-        <v>0.5152824333698376</v>
+        <v>-0.09521948024169971</v>
       </c>
       <c r="F6">
-        <v>0.6152824333698319</v>
+        <v>0.5564137671671248</v>
       </c>
       <c r="G6">
-        <v>0.5152824333698376</v>
+        <v>0.3635141481251438</v>
       </c>
       <c r="H6">
-        <v>0.2952808457402554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.1472273004597511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.4701824333698283</v>
+        <v>0.2659007569564139</v>
       </c>
       <c r="C7">
-        <v>0.5501824333698265</v>
+        <v>0.5789317220870359</v>
       </c>
       <c r="D7">
-        <v>0.5701824333698368</v>
+        <v>0.07651660822925663</v>
       </c>
       <c r="E7">
-        <v>0.6701824333698311</v>
+        <v>0.7281498556380811</v>
       </c>
       <c r="F7">
-        <v>0.5701824333698368</v>
+        <v>0.5352502365961002</v>
       </c>
       <c r="G7">
-        <v>0.3501808457402546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.02450878801120521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.8101824333698275</v>
+        <v>1.260690851164143</v>
       </c>
       <c r="C8">
-        <v>0.8301824333698378</v>
+        <v>0.7582757373063643</v>
       </c>
       <c r="D8">
-        <v>0.9301824333698321</v>
+        <v>1.409908984715189</v>
       </c>
       <c r="E8">
-        <v>0.8301824333698378</v>
+        <v>1.217009365673208</v>
       </c>
       <c r="F8">
-        <v>0.6101808457402556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.7062679170883128</v>
+      </c>
+      <c r="G8">
+        <v>0.911668649685511</v>
+      </c>
+      <c r="H8">
+        <v>0.5051827077222001</v>
+      </c>
+      <c r="I8">
+        <v>0.9402868649905415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.4940950113300587</v>
+        <v>0.2946970959196917</v>
       </c>
       <c r="C9">
-        <v>0.594095011330053</v>
+        <v>0.9463303433285162</v>
       </c>
       <c r="D9">
-        <v>0.4940950113300587</v>
+        <v>0.7534307242865352</v>
       </c>
       <c r="E9">
-        <v>0.2740934237004766</v>
+        <v>0.2426892757016403</v>
       </c>
       <c r="F9">
-        <v>0.4940972963953513</v>
+        <v>0.4480900082988384</v>
       </c>
       <c r="G9">
-        <v>0.394091569405758</v>
+        <v>0.04160406633552749</v>
       </c>
       <c r="H9">
-        <v>0.554095011330061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.4767082236038689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03590498866994807</v>
+        <v>0.3856725119803543</v>
       </c>
       <c r="C10">
-        <v>-0.1359049886699424</v>
+        <v>0.1927728929383733</v>
       </c>
       <c r="D10">
-        <v>-0.3559065762995245</v>
+        <v>-0.3179685556465216</v>
       </c>
       <c r="E10">
-        <v>-0.1359027036046498</v>
+        <v>-0.1125678230493235</v>
       </c>
       <c r="F10">
-        <v>-0.2359084305942432</v>
+        <v>-0.5190537650126344</v>
       </c>
       <c r="G10">
-        <v>-0.07590498866994011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.08394960774429301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.02590498866994298</v>
+        <v>0.2952882579329085</v>
       </c>
       <c r="C11">
-        <v>-0.2459065762995251</v>
+        <v>-0.2154531906519864</v>
       </c>
       <c r="D11">
-        <v>-0.02590270360465044</v>
+        <v>-0.01005245805478834</v>
       </c>
       <c r="E11">
-        <v>-0.1259084305942438</v>
+        <v>-0.4165384000180992</v>
       </c>
       <c r="F11">
-        <v>0.03409501133005929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.01856575725024216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2780012497662824</v>
+        <v>-0.2970557949068323</v>
       </c>
       <c r="C12">
-        <v>-0.05799737707140767</v>
+        <v>-0.09165506230963413</v>
       </c>
       <c r="D12">
-        <v>-0.158003104061001</v>
+        <v>-0.4981410042729451</v>
       </c>
       <c r="E12">
-        <v>0.00200033786330206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.06303684700460363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.1799972183084506</v>
+        <v>-0.1069508448768545</v>
       </c>
       <c r="C13">
-        <v>-0.2800029452980439</v>
+        <v>-0.5134367868401654</v>
       </c>
       <c r="D13">
-        <v>-0.1199995033737409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.07833262957182399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.2551031738045736</v>
+        <v>-0.6053253388254292</v>
       </c>
       <c r="C14">
-        <v>-0.09509973188027061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.1702211815570877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.02509972555113507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.06843616378760228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01758111206922311</v>
+        <v>-1.692275877396497</v>
       </c>
       <c r="C2">
-        <v>-0.9703086835434362</v>
+        <v>-0.003275877396490101</v>
       </c>
       <c r="D2">
-        <v>-1.190204369659767</v>
+        <v>0.3477207439705694</v>
       </c>
       <c r="E2">
-        <v>0.851657034662153</v>
+        <v>0.5877241226035039</v>
       </c>
       <c r="F2">
-        <v>1.077585438625931</v>
+        <v>0.09872412260351376</v>
       </c>
       <c r="G2">
-        <v>-0.1996304584251192</v>
+        <v>-0.3522758773964938</v>
       </c>
       <c r="H2">
-        <v>0.1134005067055028</v>
+        <v>-0.2722758773964955</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.8029421940374804</v>
+        <v>0.1640906121094658</v>
       </c>
       <c r="C3">
-        <v>-1.022837880153811</v>
+        <v>0.5150872334765253</v>
       </c>
       <c r="D3">
-        <v>1.019023524168109</v>
+        <v>0.7550906121094598</v>
       </c>
       <c r="E3">
-        <v>1.244951928131887</v>
+        <v>0.2660906121094697</v>
       </c>
       <c r="F3">
-        <v>-0.0322639689191633</v>
+        <v>-0.1849093878905379</v>
       </c>
       <c r="G3">
-        <v>0.2807669962114587</v>
+        <v>-0.1049093878905396</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.7936197797752114</v>
+        <v>0.7443053338551252</v>
       </c>
       <c r="C4">
-        <v>1.248241624546709</v>
+        <v>0.9843087124880596</v>
       </c>
       <c r="D4">
-        <v>1.474170028510487</v>
+        <v>0.4953087124880696</v>
       </c>
       <c r="E4">
-        <v>0.1969541314594366</v>
+        <v>0.04430871248806201</v>
       </c>
       <c r="F4">
-        <v>0.5099850965900585</v>
+        <v>0.1243087124880603</v>
       </c>
       <c r="G4">
-        <v>0.007569982732279296</v>
+        <v>0.1443087124880705</v>
       </c>
       <c r="H4">
-        <v>0.6592032301411037</v>
+        <v>0.2443087124880648</v>
       </c>
       <c r="I4">
-        <v>0.4663036110991228</v>
+        <v>0.1443087124880705</v>
       </c>
       <c r="J4">
-        <v>-0.04443783748577212</v>
+        <v>-0.07569287514151168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.484163736993811</v>
+        <v>2.220230824935162</v>
       </c>
       <c r="C5">
-        <v>2.710092140957589</v>
+        <v>1.731230824935172</v>
       </c>
       <c r="D5">
-        <v>1.432876243906539</v>
+        <v>1.280230824935164</v>
       </c>
       <c r="E5">
-        <v>1.745907209037161</v>
+        <v>1.360230824935162</v>
       </c>
       <c r="F5">
-        <v>1.243492095179382</v>
+        <v>1.380230824935173</v>
       </c>
       <c r="G5">
-        <v>1.895125342588206</v>
+        <v>1.480230824935167</v>
       </c>
       <c r="H5">
-        <v>1.702225723546225</v>
+        <v>1.380230824935173</v>
       </c>
       <c r="I5">
-        <v>1.19148427496133</v>
+        <v>1.16022923730559</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.371380565536508</v>
+        <v>0.3925192495140906</v>
       </c>
       <c r="C6">
-        <v>0.09416466848545757</v>
+        <v>-0.058480750485917</v>
       </c>
       <c r="D6">
-        <v>0.4071956336160796</v>
+        <v>0.02151924951408128</v>
       </c>
       <c r="E6">
-        <v>-0.09521948024169971</v>
+        <v>0.04151924951409147</v>
       </c>
       <c r="F6">
-        <v>0.5564137671671248</v>
+        <v>0.1415192495140858</v>
       </c>
       <c r="G6">
-        <v>0.3635141481251438</v>
+        <v>0.04151924951409147</v>
       </c>
       <c r="H6">
-        <v>-0.1472273004597511</v>
+        <v>-0.1784823381154907</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.2659007569564139</v>
+        <v>0.1132553379850393</v>
       </c>
       <c r="C7">
-        <v>0.5789317220870359</v>
+        <v>0.1932553379850376</v>
       </c>
       <c r="D7">
-        <v>0.07651660822925663</v>
+        <v>0.2132553379850478</v>
       </c>
       <c r="E7">
-        <v>0.7281498556380811</v>
+        <v>0.3132553379850421</v>
       </c>
       <c r="F7">
-        <v>0.5352502365961002</v>
+        <v>0.2132553379850478</v>
       </c>
       <c r="G7">
-        <v>0.02450878801120521</v>
+        <v>-0.006746249644534352</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.260690851164143</v>
+        <v>0.8750144670621453</v>
       </c>
       <c r="C8">
-        <v>0.7582757373063643</v>
+        <v>0.8950144670621555</v>
       </c>
       <c r="D8">
-        <v>1.409908984715189</v>
+        <v>0.9950144670621498</v>
       </c>
       <c r="E8">
-        <v>1.217009365673208</v>
+        <v>0.8950144670621555</v>
       </c>
       <c r="F8">
-        <v>0.7062679170883128</v>
+        <v>0.6750128794325734</v>
       </c>
       <c r="G8">
-        <v>0.911668649685511</v>
+        <v>0.895016752127448</v>
       </c>
       <c r="H8">
-        <v>0.5051827077222001</v>
+        <v>0.7950110251378547</v>
       </c>
       <c r="I8">
-        <v>0.9402868649905415</v>
+        <v>0.9550144670621578</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2946970959196917</v>
+        <v>0.4314358256754829</v>
       </c>
       <c r="C9">
-        <v>0.9463303433285162</v>
+        <v>0.5314358256754772</v>
       </c>
       <c r="D9">
-        <v>0.7534307242865352</v>
+        <v>0.4314358256754829</v>
       </c>
       <c r="E9">
-        <v>0.2426892757016403</v>
+        <v>0.2114342380459007</v>
       </c>
       <c r="F9">
-        <v>0.4480900082988384</v>
+        <v>0.4314381107407754</v>
       </c>
       <c r="G9">
-        <v>0.04160406633552749</v>
+        <v>0.3314323837511821</v>
       </c>
       <c r="H9">
-        <v>0.4767082236038689</v>
+        <v>0.4914358256754852</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.3856725119803543</v>
+        <v>-0.02922200567268469</v>
       </c>
       <c r="C10">
-        <v>0.1927728929383733</v>
+        <v>-0.129222005672679</v>
       </c>
       <c r="D10">
-        <v>-0.3179685556465216</v>
+        <v>-0.3492235933022612</v>
       </c>
       <c r="E10">
-        <v>-0.1125678230493235</v>
+        <v>-0.1292197206073865</v>
       </c>
       <c r="F10">
-        <v>-0.5190537650126344</v>
+        <v>-0.2292254475969798</v>
       </c>
       <c r="G10">
-        <v>-0.08394960774429301</v>
+        <v>-0.06922200567267674</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.2952882579329085</v>
+        <v>-0.02670664067814384</v>
       </c>
       <c r="C11">
-        <v>-0.2154531906519864</v>
+        <v>-0.246708228307726</v>
       </c>
       <c r="D11">
-        <v>-0.01005245805478834</v>
+        <v>-0.0267043556128513</v>
       </c>
       <c r="E11">
-        <v>-0.4165384000180992</v>
+        <v>-0.1267100826024446</v>
       </c>
       <c r="F11">
-        <v>0.01856575725024216</v>
+        <v>0.03329335932185844</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2970557949068323</v>
+        <v>-0.3283108325625718</v>
       </c>
       <c r="C12">
-        <v>-0.09165506230963413</v>
+        <v>-0.1083069598676971</v>
       </c>
       <c r="D12">
-        <v>-0.4981410042729451</v>
+        <v>-0.2083126868572904</v>
       </c>
       <c r="E12">
-        <v>-0.06303684700460363</v>
+        <v>-0.04830924493298736</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.1069508448768545</v>
+        <v>-0.1236027424349175</v>
       </c>
       <c r="C13">
-        <v>-0.5134367868401654</v>
+        <v>-0.2236084694245108</v>
       </c>
       <c r="D13">
-        <v>-0.07833262957182399</v>
+        <v>-0.06360502750020772</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.6053253388254292</v>
+        <v>-0.3154970214097745</v>
       </c>
       <c r="C14">
-        <v>-0.1702211815570877</v>
+        <v>-0.1554935794854714</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.06843616378760228</v>
+        <v>0.08316376585921856</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.1751572376319401</v>
+      </c>
+      <c r="C2">
+        <v>0.7467495125451464</v>
+      </c>
+      <c r="D2">
+        <v>-0.1165509470042323</v>
+      </c>
+      <c r="E2">
+        <v>0.4039974597626313</v>
+      </c>
+      <c r="F2">
+        <v>-0.3218519262785449</v>
+      </c>
+      <c r="G2">
+        <v>-0.4599467470292111</v>
+      </c>
+      <c r="H2">
+        <v>1.023968702404825</v>
+      </c>
+      <c r="I2">
+        <v>0.3153482797640337</v>
+      </c>
+      <c r="J2">
+        <v>0.9612027218905823</v>
+      </c>
+      <c r="K2">
+        <v>-0.4603915782834448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.2284450223101544</v>
+      </c>
+      <c r="C3">
+        <v>0.2921033844567092</v>
+      </c>
+      <c r="D3">
+        <v>-0.433746001584467</v>
+      </c>
+      <c r="E3">
+        <v>-0.5718408223351332</v>
+      </c>
+      <c r="F3">
+        <v>0.9120746270989031</v>
+      </c>
+      <c r="G3">
+        <v>0.2034542044581115</v>
+      </c>
+      <c r="H3">
+        <v>0.8493086465846602</v>
+      </c>
+      <c r="I3">
+        <v>-0.5722856535893669</v>
+      </c>
+      <c r="J3">
+        <v>-0.3722856535893669</v>
+      </c>
+      <c r="K3">
+        <v>-0.6072050208010182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.461887783462062</v>
+      </c>
+      <c r="C4">
+        <v>-0.5999826042127282</v>
+      </c>
+      <c r="D4">
+        <v>0.8839328452213081</v>
+      </c>
+      <c r="E4">
+        <v>0.1753124225805166</v>
+      </c>
+      <c r="F4">
+        <v>0.8211668647070652</v>
+      </c>
+      <c r="G4">
+        <v>-0.6004274354669619</v>
+      </c>
+      <c r="H4">
+        <v>-0.4004274354669619</v>
+      </c>
+      <c r="I4">
+        <v>-0.6353468026786132</v>
+      </c>
+      <c r="J4">
+        <v>-0.4004274354669619</v>
+      </c>
+      <c r="K4">
+        <v>0.5968209613228609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.8842414327527378</v>
+      </c>
+      <c r="C5">
+        <v>0.1756210101119463</v>
+      </c>
+      <c r="D5">
+        <v>0.8214754522384949</v>
+      </c>
+      <c r="E5">
+        <v>-0.6001188479355322</v>
+      </c>
+      <c r="F5">
+        <v>-0.4001188479355322</v>
+      </c>
+      <c r="G5">
+        <v>-0.6350382151471835</v>
+      </c>
+      <c r="H5">
+        <v>-0.4001188479355322</v>
+      </c>
+      <c r="I5">
+        <v>0.5971295488542906</v>
+      </c>
+      <c r="J5">
+        <v>-0.8141557272102987</v>
+      </c>
+      <c r="K5">
+        <v>0.2011275510987005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.9448444236657096</v>
+      </c>
+      <c r="C6">
+        <v>-0.4767498765083175</v>
+      </c>
+      <c r="D6">
+        <v>-0.2767498765083175</v>
+      </c>
+      <c r="E6">
+        <v>-0.5116692437199688</v>
+      </c>
+      <c r="F6">
+        <v>-0.2767498765083175</v>
+      </c>
+      <c r="G6">
+        <v>0.7204985202815053</v>
+      </c>
+      <c r="H6">
+        <v>-0.690786755783084</v>
+      </c>
+      <c r="I6">
+        <v>0.3244965225259151</v>
+      </c>
+      <c r="J6">
+        <v>-0.2767498765083175</v>
+      </c>
+      <c r="K6">
+        <v>0.0232501234916825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.5609439675065104</v>
+      </c>
+      <c r="C7">
+        <v>-0.7958633347181617</v>
+      </c>
+      <c r="D7">
+        <v>-0.5609439675065104</v>
+      </c>
+      <c r="E7">
+        <v>0.4363044292833124</v>
+      </c>
+      <c r="F7">
+        <v>-0.9749808467812769</v>
+      </c>
+      <c r="G7">
+        <v>0.0403024315277222</v>
+      </c>
+      <c r="H7">
+        <v>-0.5609439675065104</v>
+      </c>
+      <c r="I7">
+        <v>-0.2609439675065104</v>
+      </c>
+      <c r="J7">
+        <v>-0.4609439675065104</v>
+      </c>
+      <c r="K7">
+        <v>0.1793850746158526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.3823342342320959</v>
+      </c>
+      <c r="C8">
+        <v>0.6149141625577269</v>
+      </c>
+      <c r="D8">
+        <v>-0.7963711135068624</v>
+      </c>
+      <c r="E8">
+        <v>0.2189121648021367</v>
+      </c>
+      <c r="F8">
+        <v>-0.3823342342320959</v>
+      </c>
+      <c r="G8">
+        <v>-0.08233423423209588</v>
+      </c>
+      <c r="H8">
+        <v>-0.2823342342320959</v>
+      </c>
+      <c r="I8">
+        <v>0.3579948078902671</v>
+      </c>
+      <c r="J8">
+        <v>-0.7823342342320959</v>
+      </c>
+      <c r="K8">
+        <v>-0.5823342342320958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.6740180840560731</v>
+      </c>
+      <c r="C9">
+        <v>0.341265194252926</v>
+      </c>
+      <c r="D9">
+        <v>-0.2599812047813066</v>
+      </c>
+      <c r="E9">
+        <v>0.04001879521869339</v>
+      </c>
+      <c r="F9">
+        <v>-0.1599812047813066</v>
+      </c>
+      <c r="G9">
+        <v>0.4803478373410563</v>
+      </c>
+      <c r="H9">
+        <v>-0.6599812047813066</v>
+      </c>
+      <c r="I9">
+        <v>-0.4599812047813066</v>
+      </c>
+      <c r="J9">
+        <v>0.04001879521869339</v>
+      </c>
+      <c r="K9">
+        <v>0.4363761054927545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.1915332160839412</v>
+      </c>
+      <c r="C10">
+        <v>0.1084667839160588</v>
+      </c>
+      <c r="D10">
+        <v>-0.09153321608394119</v>
+      </c>
+      <c r="E10">
+        <v>0.5487958260384218</v>
+      </c>
+      <c r="F10">
+        <v>-0.5915332160839413</v>
+      </c>
+      <c r="G10">
+        <v>-0.3915332160839412</v>
+      </c>
+      <c r="H10">
+        <v>0.1084667839160588</v>
+      </c>
+      <c r="I10">
+        <v>0.5048240941901199</v>
+      </c>
+      <c r="J10">
+        <v>-0.4788853545570291</v>
+      </c>
+      <c r="K10">
+        <v>0.1031705577366253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.02172827491789547</v>
+      </c>
+      <c r="C11">
+        <v>0.6186007672044675</v>
+      </c>
+      <c r="D11">
+        <v>-0.5217282749178955</v>
+      </c>
+      <c r="E11">
+        <v>-0.3217282749178955</v>
+      </c>
+      <c r="F11">
+        <v>0.1782717250821045</v>
+      </c>
+      <c r="G11">
+        <v>0.5746290353561656</v>
+      </c>
+      <c r="H11">
+        <v>-0.4090804133909833</v>
+      </c>
+      <c r="I11">
+        <v>0.172975498902671</v>
+      </c>
+      <c r="J11">
+        <v>-0.4484416407690637</v>
+      </c>
+      <c r="K11">
+        <v>-0.4246158388727841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.4747468638169429</v>
+      </c>
+      <c r="C12">
+        <v>-0.2747468638169429</v>
+      </c>
+      <c r="D12">
+        <v>0.2252531361830571</v>
+      </c>
+      <c r="E12">
+        <v>0.6216104464571182</v>
+      </c>
+      <c r="F12">
+        <v>-0.3620990022900307</v>
+      </c>
+      <c r="G12">
+        <v>0.2199569100036236</v>
+      </c>
+      <c r="H12">
+        <v>-0.4014602296681111</v>
+      </c>
+      <c r="I12">
+        <v>-0.3776344277718315</v>
+      </c>
+      <c r="J12">
+        <v>-0.2784005775382574</v>
+      </c>
+      <c r="K12">
+        <v>0.1925558835048442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.1810989960880735</v>
+      </c>
+      <c r="C13">
+        <v>0.5774563063621345</v>
+      </c>
+      <c r="D13">
+        <v>-0.4062531423850144</v>
+      </c>
+      <c r="E13">
+        <v>0.17580276990864</v>
+      </c>
+      <c r="F13">
+        <v>-0.4456143697630947</v>
+      </c>
+      <c r="G13">
+        <v>-0.4217885678668151</v>
+      </c>
+      <c r="H13">
+        <v>-0.322554717633241</v>
+      </c>
+      <c r="I13">
+        <v>0.1484017434098606</v>
+      </c>
+      <c r="J13">
+        <v>-0.2963369957325623</v>
+      </c>
+      <c r="K13">
+        <v>-0.141752121668861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.4840174548073932</v>
+      </c>
+      <c r="C14">
+        <v>0.0980384574862611</v>
+      </c>
+      <c r="D14">
+        <v>-0.5233786821854736</v>
+      </c>
+      <c r="E14">
+        <v>-0.499552880289194</v>
+      </c>
+      <c r="F14">
+        <v>-0.4003190300556199</v>
+      </c>
+      <c r="G14">
+        <v>0.07063743098748171</v>
+      </c>
+      <c r="H14">
+        <v>-0.3741013081549411</v>
+      </c>
+      <c r="I14">
+        <v>-0.2195164340912399</v>
+      </c>
+      <c r="J14">
+        <v>-0.2177411080359164</v>
+      </c>
+      <c r="K14">
+        <v>0.008669805236330291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.5189162567097284</v>
+      </c>
+      <c r="C15">
+        <v>-0.4950904548134488</v>
+      </c>
+      <c r="D15">
+        <v>-0.3958566045798747</v>
+      </c>
+      <c r="E15">
+        <v>0.07509985646322692</v>
+      </c>
+      <c r="F15">
+        <v>-0.369638882679196</v>
+      </c>
+      <c r="G15">
+        <v>-0.2150540086154947</v>
+      </c>
+      <c r="H15">
+        <v>-0.2132786825601712</v>
+      </c>
+      <c r="I15">
+        <v>0.0131322307120755</v>
+      </c>
+      <c r="J15">
+        <v>-0.1900183524246998</v>
+      </c>
+      <c r="K15">
+        <v>0.05164518596345291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.349586301902994</v>
+      </c>
+      <c r="C16">
+        <v>0.1213701591401076</v>
+      </c>
+      <c r="D16">
+        <v>-0.3233685800023153</v>
+      </c>
+      <c r="E16">
+        <v>-0.168783705938614</v>
+      </c>
+      <c r="F16">
+        <v>-0.1670083798832905</v>
+      </c>
+      <c r="G16">
+        <v>0.05940253338895618</v>
+      </c>
+      <c r="H16">
+        <v>-0.1437480497478191</v>
+      </c>
+      <c r="I16">
+        <v>0.09791548864033359</v>
+      </c>
+      <c r="J16">
+        <v>-0.04858052875379421</v>
+      </c>
+      <c r="K16">
+        <v>-0.6839200410816971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2022249077493669</v>
+      </c>
+      <c r="C17">
+        <v>-0.04764003368566561</v>
+      </c>
+      <c r="D17">
+        <v>-0.04586470763034212</v>
+      </c>
+      <c r="E17">
+        <v>0.1805462056419046</v>
+      </c>
+      <c r="F17">
+        <v>-0.02260437749487071</v>
+      </c>
+      <c r="G17">
+        <v>0.219059160893282</v>
+      </c>
+      <c r="H17">
+        <v>0.07256314349915421</v>
+      </c>
+      <c r="I17">
+        <v>-0.5627763688287487</v>
+      </c>
+      <c r="J17">
+        <v>0.5105430972712256</v>
+      </c>
+      <c r="K17">
+        <v>0.3661644105663996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.0698530192035775</v>
+      </c>
+      <c r="C18">
+        <v>0.1565578940686692</v>
+      </c>
+      <c r="D18">
+        <v>-0.0465926890681061</v>
+      </c>
+      <c r="E18">
+        <v>0.1950708493200466</v>
+      </c>
+      <c r="F18">
+        <v>0.04857483192591883</v>
+      </c>
+      <c r="G18">
+        <v>-0.5867646804019842</v>
+      </c>
+      <c r="H18">
+        <v>0.4865547856979902</v>
+      </c>
+      <c r="I18">
+        <v>0.3421760989931642</v>
+      </c>
+      <c r="J18">
+        <v>-0.09197663263687156</v>
+      </c>
+      <c r="K18">
+        <v>0.04590189724055455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.08017679246339643</v>
+      </c>
+      <c r="C19">
+        <v>0.1614867459247563</v>
+      </c>
+      <c r="D19">
+        <v>0.01499072853062849</v>
+      </c>
+      <c r="E19">
+        <v>-0.6203487837972744</v>
+      </c>
+      <c r="F19">
+        <v>0.4529706823026999</v>
+      </c>
+      <c r="G19">
+        <v>0.3085919955978739</v>
+      </c>
+      <c r="H19">
+        <v>-0.1255607360321619</v>
+      </c>
+      <c r="I19">
+        <v>0.01231779384526421</v>
+      </c>
+      <c r="J19">
+        <v>0.6176386691027431</v>
+      </c>
+      <c r="K19">
+        <v>0.1018366846824336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.1456860405029773</v>
+      </c>
+      <c r="C20">
+        <v>-0.4896534718249256</v>
+      </c>
+      <c r="D20">
+        <v>0.5836659942750486</v>
+      </c>
+      <c r="E20">
+        <v>0.4392873075702227</v>
+      </c>
+      <c r="F20">
+        <v>0.005134575940186903</v>
+      </c>
+      <c r="G20">
+        <v>0.143013105817613</v>
+      </c>
+      <c r="H20">
+        <v>0.748333981075092</v>
+      </c>
+      <c r="I20">
+        <v>0.2325319966547824</v>
+      </c>
+      <c r="J20">
+        <v>-0.751666018924908</v>
+      </c>
+      <c r="K20">
+        <v>0.3542321777140501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.6031464438423868</v>
+      </c>
+      <c r="C21">
+        <v>0.4587677571375608</v>
+      </c>
+      <c r="D21">
+        <v>0.02461502550752503</v>
+      </c>
+      <c r="E21">
+        <v>0.1624935553849511</v>
+      </c>
+      <c r="F21">
+        <v>0.7678144306424302</v>
+      </c>
+      <c r="G21">
+        <v>0.2520124462221205</v>
+      </c>
+      <c r="H21">
+        <v>-0.7321855693575698</v>
+      </c>
+      <c r="I21">
+        <v>0.3737126272813882</v>
+      </c>
+      <c r="J21">
+        <v>0.03543857523855404</v>
+      </c>
+      <c r="K21">
+        <v>0.4491130770919896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.02513918145493221</v>
+      </c>
+      <c r="C22">
+        <v>0.1630177113323583</v>
+      </c>
+      <c r="D22">
+        <v>0.7683385865898373</v>
+      </c>
+      <c r="E22">
+        <v>0.2525366021695277</v>
+      </c>
+      <c r="F22">
+        <v>-0.7316614134101627</v>
+      </c>
+      <c r="G22">
+        <v>0.3742367832287954</v>
+      </c>
+      <c r="H22">
+        <v>0.03596273118596122</v>
+      </c>
+      <c r="I22">
+        <v>0.4496372330393967</v>
+      </c>
+      <c r="J22">
+        <v>3.668338586589837</v>
+      </c>
+      <c r="K22">
+        <v>11.38540535219178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.1065617014213259</v>
+      </c>
+      <c r="C23">
+        <v>0.7118825766788048</v>
+      </c>
+      <c r="D23">
+        <v>0.1960805922584953</v>
+      </c>
+      <c r="E23">
+        <v>-0.7881174233211951</v>
+      </c>
+      <c r="F23">
+        <v>0.317780773317763</v>
+      </c>
+      <c r="G23">
+        <v>-0.02049327872507117</v>
+      </c>
+      <c r="H23">
+        <v>0.3931812231283643</v>
+      </c>
+      <c r="I23">
+        <v>3.611882576678805</v>
+      </c>
+      <c r="J23">
+        <v>11.32894934228074</v>
+      </c>
+      <c r="K23">
+        <v>-6.838117423321195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.6893466810517879</v>
+      </c>
+      <c r="C24">
+        <v>0.1735446966314783</v>
+      </c>
+      <c r="D24">
+        <v>-0.8106533189482121</v>
+      </c>
+      <c r="E24">
+        <v>0.295244877690746</v>
+      </c>
+      <c r="F24">
+        <v>-0.0430291743520882</v>
+      </c>
+      <c r="G24">
+        <v>0.3706453275013473</v>
+      </c>
+      <c r="H24">
+        <v>3.589346681051788</v>
+      </c>
+      <c r="I24">
+        <v>11.30641344665373</v>
+      </c>
+      <c r="J24">
+        <v>-6.860653318948212</v>
+      </c>
+      <c r="K24">
+        <v>1.189346681051785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.1765463188431397</v>
+      </c>
+      <c r="C25">
+        <v>-0.8076516967365506</v>
+      </c>
+      <c r="D25">
+        <v>0.2982464999024074</v>
+      </c>
+      <c r="E25">
+        <v>-0.04002755214042675</v>
+      </c>
+      <c r="F25">
+        <v>0.3736469497130088</v>
+      </c>
+      <c r="G25">
+        <v>3.592348303263449</v>
+      </c>
+      <c r="H25">
+        <v>11.30941506886539</v>
+      </c>
+      <c r="I25">
+        <v>-6.857651696736551</v>
+      </c>
+      <c r="J25">
+        <v>1.192348303263447</v>
+      </c>
+      <c r="K25">
+        <v>2.792348303263455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.9097888873642872</v>
+      </c>
+      <c r="C26">
+        <v>0.1961093092746708</v>
+      </c>
+      <c r="D26">
+        <v>-0.1421647427681634</v>
+      </c>
+      <c r="E26">
+        <v>0.2715097590852721</v>
+      </c>
+      <c r="F26">
+        <v>3.490211112635713</v>
+      </c>
+      <c r="G26">
+        <v>11.20727787823765</v>
+      </c>
+      <c r="H26">
+        <v>-6.959788887364287</v>
+      </c>
+      <c r="I26">
+        <v>1.09021111263571</v>
+      </c>
+      <c r="J26">
+        <v>2.690211112635719</v>
+      </c>
+      <c r="K26">
+        <v>-3.190663107762081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.1625802216278316</v>
+      </c>
+      <c r="C27">
+        <v>-0.1756938304150026</v>
+      </c>
+      <c r="D27">
+        <v>0.2379806714384329</v>
+      </c>
+      <c r="E27">
+        <v>3.456682024988874</v>
+      </c>
+      <c r="F27">
+        <v>11.17374879059081</v>
+      </c>
+      <c r="G27">
+        <v>-6.993317975011126</v>
+      </c>
+      <c r="H27">
+        <v>1.056682024988871</v>
+      </c>
+      <c r="I27">
+        <v>2.656682024988879</v>
+      </c>
+      <c r="J27">
+        <v>-3.224192195408921</v>
+      </c>
+      <c r="K27">
+        <v>-6.143317975011132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.08628305299785866</v>
+      </c>
+      <c r="C28">
+        <v>0.3273914488555769</v>
+      </c>
+      <c r="D28">
+        <v>3.546092802406017</v>
+      </c>
+      <c r="E28">
+        <v>11.26315956800796</v>
+      </c>
+      <c r="F28">
+        <v>-6.903907197593982</v>
+      </c>
+      <c r="G28">
+        <v>1.146092802406015</v>
+      </c>
+      <c r="H28">
+        <v>2.746092802406023</v>
+      </c>
+      <c r="I28">
+        <v>-3.134781417991777</v>
+      </c>
+      <c r="J28">
+        <v>-6.053907197593988</v>
+      </c>
+      <c r="K28">
+        <v>1.446092802406012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.2871389253640914</v>
+      </c>
+      <c r="C29">
+        <v>3.505840278914532</v>
+      </c>
+      <c r="D29">
+        <v>11.22290704451647</v>
+      </c>
+      <c r="E29">
+        <v>-6.944159721085468</v>
+      </c>
+      <c r="F29">
+        <v>1.105840278914529</v>
+      </c>
+      <c r="G29">
+        <v>2.705840278914538</v>
+      </c>
+      <c r="H29">
+        <v>-3.175033941483262</v>
+      </c>
+      <c r="I29">
+        <v>-6.094159721085473</v>
+      </c>
+      <c r="J29">
+        <v>1.405840278914526</v>
+      </c>
+      <c r="K29">
+        <v>-0.1151064557530347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3.498020002650094</v>
+      </c>
+      <c r="C30">
+        <v>11.21508676825203</v>
+      </c>
+      <c r="D30">
+        <v>-6.951979997349906</v>
+      </c>
+      <c r="E30">
+        <v>1.098020002650091</v>
+      </c>
+      <c r="F30">
+        <v>2.6980200026501</v>
+      </c>
+      <c r="G30">
+        <v>-3.1828542177477</v>
+      </c>
+      <c r="H30">
+        <v>-6.101979997349912</v>
+      </c>
+      <c r="I30">
+        <v>1.398020002650088</v>
+      </c>
+      <c r="J30">
+        <v>-0.1229267320174728</v>
+      </c>
+      <c r="K30">
+        <v>-1.241979997349912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>11.1425427947944</v>
+      </c>
+      <c r="C31">
+        <v>-7.024523970807536</v>
+      </c>
+      <c r="D31">
+        <v>1.025476029192461</v>
+      </c>
+      <c r="E31">
+        <v>2.62547602919247</v>
+      </c>
+      <c r="F31">
+        <v>-3.25539819120533</v>
+      </c>
+      <c r="G31">
+        <v>-6.174523970807542</v>
+      </c>
+      <c r="H31">
+        <v>1.325476029192458</v>
+      </c>
+      <c r="I31">
+        <v>-0.1954707054751026</v>
+      </c>
+      <c r="J31">
+        <v>-1.314523970807542</v>
+      </c>
+      <c r="K31">
+        <v>0.3744760291924649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-7.356429954718923</v>
+      </c>
+      <c r="C32">
+        <v>0.693570045281074</v>
+      </c>
+      <c r="D32">
+        <v>2.293570045281083</v>
+      </c>
+      <c r="E32">
+        <v>-3.587304175116717</v>
+      </c>
+      <c r="F32">
+        <v>-6.506429954718929</v>
+      </c>
+      <c r="G32">
+        <v>0.993570045281071</v>
+      </c>
+      <c r="H32">
+        <v>-0.5273766893864897</v>
+      </c>
+      <c r="I32">
+        <v>-1.646429954718929</v>
+      </c>
+      <c r="J32">
+        <v>0.04257004528107781</v>
+      </c>
+      <c r="K32">
+        <v>0.3935666666481373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.3771163586535374</v>
+      </c>
+      <c r="C33">
+        <v>1.977116358653547</v>
+      </c>
+      <c r="D33">
+        <v>-3.903757861744253</v>
+      </c>
+      <c r="E33">
+        <v>-6.822883641346466</v>
+      </c>
+      <c r="F33">
+        <v>0.6771163586535344</v>
+      </c>
+      <c r="G33">
+        <v>-0.8438303760140263</v>
+      </c>
+      <c r="H33">
+        <v>-1.962883641346466</v>
+      </c>
+      <c r="I33">
+        <v>-0.2738836413464588</v>
+      </c>
+      <c r="J33">
+        <v>0.07711298002060069</v>
+      </c>
+      <c r="K33">
+        <v>0.3171163586535352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>2.236909448325097</v>
+      </c>
+      <c r="C34">
+        <v>-3.643964772072703</v>
+      </c>
+      <c r="D34">
+        <v>-6.563090551674915</v>
+      </c>
+      <c r="E34">
+        <v>0.9369094483250848</v>
+      </c>
+      <c r="F34">
+        <v>-0.5840372863424759</v>
+      </c>
+      <c r="G34">
+        <v>-1.703090551674915</v>
+      </c>
+      <c r="H34">
+        <v>-0.0140905516749083</v>
+      </c>
+      <c r="I34">
+        <v>0.3369060696921512</v>
+      </c>
+      <c r="J34">
+        <v>0.5769094483250856</v>
+      </c>
+      <c r="K34">
+        <v>0.08790944832509556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-4.130651201392873</v>
+      </c>
+      <c r="C35">
+        <v>-7.049776980995086</v>
+      </c>
+      <c r="D35">
+        <v>0.4502230190049143</v>
+      </c>
+      <c r="E35">
+        <v>-1.070723715662646</v>
+      </c>
+      <c r="F35">
+        <v>-2.189776980995086</v>
+      </c>
+      <c r="G35">
+        <v>-0.5007769809950788</v>
+      </c>
+      <c r="H35">
+        <v>-0.1497803596280193</v>
+      </c>
+      <c r="I35">
+        <v>0.09022301900491514</v>
+      </c>
+      <c r="J35">
+        <v>-0.398776980995075</v>
+      </c>
+      <c r="K35">
+        <v>-0.8497769809950826</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-6.93087924394391</v>
+      </c>
+      <c r="C36">
+        <v>0.5691207560560899</v>
+      </c>
+      <c r="D36">
+        <v>-0.9518259786114708</v>
+      </c>
+      <c r="E36">
+        <v>-2.07087924394391</v>
+      </c>
+      <c r="F36">
+        <v>-0.3818792439439033</v>
+      </c>
+      <c r="G36">
+        <v>-0.03088262257684377</v>
+      </c>
+      <c r="H36">
+        <v>0.2091207560560907</v>
+      </c>
+      <c r="I36">
+        <v>-0.2798792439438994</v>
+      </c>
+      <c r="J36">
+        <v>-0.7308792439439069</v>
+      </c>
+      <c r="K36">
+        <v>-0.6508792439439087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.11026341446777</v>
+      </c>
+      <c r="C37">
+        <v>-0.4106833201997908</v>
+      </c>
+      <c r="D37">
+        <v>-1.52973658553223</v>
+      </c>
+      <c r="E37">
+        <v>0.1592634144677767</v>
+      </c>
+      <c r="F37">
+        <v>0.5102600358348363</v>
+      </c>
+      <c r="G37">
+        <v>0.7502634144677707</v>
+      </c>
+      <c r="H37">
+        <v>0.2612634144677806</v>
+      </c>
+      <c r="I37">
+        <v>-0.189736585532227</v>
+      </c>
+      <c r="J37">
+        <v>-0.1097365855322287</v>
+      </c>
+      <c r="K37">
+        <v>-0.08973658553221853</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.5161379389990547</v>
+      </c>
+      <c r="C38">
+        <v>-1.635191204331494</v>
+      </c>
+      <c r="D38">
+        <v>0.05380879566851286</v>
+      </c>
+      <c r="E38">
+        <v>0.4048054170355724</v>
+      </c>
+      <c r="F38">
+        <v>0.6448087956685068</v>
+      </c>
+      <c r="G38">
+        <v>0.1558087956685167</v>
+      </c>
+      <c r="H38">
+        <v>-0.2951912043314908</v>
+      </c>
+      <c r="I38">
+        <v>-0.2151912043314926</v>
+      </c>
+      <c r="J38">
+        <v>-0.1951912043314823</v>
+      </c>
+      <c r="K38">
+        <v>-0.09519120433148805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-1.692275877396497</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.003275877396490101</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.3477207439705694</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.5877241226035039</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.09872412260351376</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-0.3522758773964938</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.2722758773964955</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>-0.2522758773964853</v>
+      </c>
+      <c r="J39">
+        <v>-0.152275877396491</v>
+      </c>
+      <c r="K39">
+        <v>-0.2522758773964853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.1640906121094658</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.5150872334765253</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.7550906121094598</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.2660906121094697</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>-0.1849093878905379</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.1049093878905396</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>-0.0849093878905294</v>
+      </c>
+      <c r="I40">
+        <v>0.01509061210946492</v>
+      </c>
+      <c r="J40">
+        <v>-0.0849093878905294</v>
+      </c>
+      <c r="K40">
+        <v>-0.3049109755201115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.7443053338551252</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.9843087124880596</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.4953087124880696</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.04430871248806201</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.1243087124880603</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.1443087124880705</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.2443087124880648</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.1443087124880705</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.07569287514151168</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.144310997553363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>2.220230824935162</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>1.731230824935172</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>1.280230824935164</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>1.360230824935162</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>1.380230824935173</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>1.480230824935167</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>1.380230824935173</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>1.16022923730559</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>1.380233110000465</v>
+      </c>
+      <c r="K42">
+        <v>1.280227383010872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.3925192495140906</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-0.058480750485917</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.02151924951408128</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.04151924951409147</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.1415192495140858</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.04151924951409147</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.1784823381154907</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.04152153457938401</v>
+      </c>
+      <c r="J43">
+        <v>-0.0584841924102093</v>
+      </c>
+      <c r="K43">
+        <v>0.1015192495140937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.1132553379850393</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.1932553379850376</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.2132553379850478</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.3132553379850421</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.2132553379850478</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.006746249644534352</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.2132576230503404</v>
+      </c>
+      <c r="I44">
+        <v>0.113251896060747</v>
+      </c>
+      <c r="J44">
+        <v>0.2732553379850501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.8750144670621453</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.8950144670621555</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.9950144670621498</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.8950144670621555</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.6750128794325734</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.895016752127448</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.7950110251378547</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.9550144670621578</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.4314358256754829</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.5314358256754772</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.4314358256754829</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.2114342380459007</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.4314381107407754</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.3314323837511821</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.4914358256754852</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.02922200567268469</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>-0.129222005672679</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.3492235933022612</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.1292197206073865</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.2292254475969798</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.06922200567267674</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.02670664067814384</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.246708228307726</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.0267043556128513</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.1267100826024446</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.03329335932185844</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.3283108325625718</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.1083069598676971</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.2083126868572904</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.04830924493298736</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.1236027424349175</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.2236084694245108</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.06360502750020772</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.3154970214097745</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.1554935794854714</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.08316376585921856</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.9203977207897325</v>
+      </c>
+      <c r="C2">
         <v>-0.1751572376319401</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.7467495125451464</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.1165509470042323</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4039974597626313</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.3218519262785449</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.4599467470292111</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.023968702404825</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3153482797640337</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.9612027218905823</v>
-      </c>
-      <c r="K2">
-        <v>-0.4603915782834448</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.6348554372392243</v>
+      </c>
+      <c r="C3">
         <v>-0.2284450223101544</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2921033844567092</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.433746001584467</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.5718408223351332</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.9120746270989031</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2034542044581115</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.8493086465846602</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.5722856535893669</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.3722856535893669</v>
-      </c>
-      <c r="K3">
-        <v>-0.6072050208010182</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.2639616025791142</v>
+      </c>
+      <c r="C4">
         <v>-0.461887783462062</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.5999826042127282</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.8839328452213081</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1753124225805166</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.8211668647070652</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.6004274354669619</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.4004274354669619</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.6353468026786132</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.4004274354669619</v>
-      </c>
-      <c r="K4">
-        <v>0.5968209613228609</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.5996740166812985</v>
+      </c>
+      <c r="C5">
         <v>0.8842414327527378</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.1756210101119463</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.8214754522384949</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.6001188479355322</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.4001188479355322</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.6350382151471835</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.4001188479355322</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.5971295488542906</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.8141557272102987</v>
-      </c>
-      <c r="K5">
-        <v>0.2011275510987005</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.298989981539161</v>
+      </c>
+      <c r="C6">
         <v>0.9448444236657096</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4767498765083175</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.2767498765083175</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.5116692437199688</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.2767498765083175</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.7204985202815053</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.690786755783084</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.3244965225259151</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2767498765083175</v>
-      </c>
-      <c r="K6">
-        <v>0.0232501234916825</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.7609439675065104</v>
+      </c>
+      <c r="C7">
         <v>-0.5609439675065104</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.7958633347181617</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.5609439675065104</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4363044292833124</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.9749808467812769</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.0403024315277222</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.5609439675065104</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.2609439675065104</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.4609439675065104</v>
-      </c>
-      <c r="K7">
-        <v>0.1793850746158526</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.6172536014437472</v>
+      </c>
+      <c r="C8">
         <v>-0.3823342342320959</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.6149141625577269</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.7963711135068624</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2189121648021367</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.3823342342320959</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.08233423423209588</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.2823342342320959</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.3579948078902671</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.7823342342320959</v>
-      </c>
-      <c r="K8">
-        <v>-0.5823342342320958</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.7372671920085162</v>
+      </c>
+      <c r="C9">
         <v>-0.6740180840560731</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.341265194252926</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.2599812047813066</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.04001879521869339</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.1599812047813066</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4803478373410563</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.6599812047813066</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.4599812047813066</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.04001879521869339</v>
-      </c>
-      <c r="K9">
-        <v>0.4363761054927545</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.4097131829502914</v>
+      </c>
+      <c r="C10">
         <v>-0.1915332160839412</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1084667839160588</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.09153321608394119</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.5487958260384218</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.5915332160839413</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3915332160839412</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.1084667839160588</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.5048240941901199</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.4788853545570291</v>
-      </c>
-      <c r="K10">
-        <v>0.1031705577366253</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.1782717250821045</v>
+      </c>
+      <c r="C11">
         <v>-0.02172827491789547</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.6186007672044675</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.5217282749178955</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.3217282749178955</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.1782717250821045</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.5746290353561656</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.4090804133909833</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.172975498902671</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.4484416407690637</v>
-      </c>
-      <c r="K11">
-        <v>-0.4246158388727841</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.6655821783054201</v>
+      </c>
+      <c r="C12">
         <v>-0.4747468638169429</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.2747468638169429</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2252531361830571</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.6216104464571182</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.3620990022900307</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2199569100036236</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4014602296681111</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.3776344277718315</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.2784005775382574</v>
-      </c>
-      <c r="K12">
-        <v>0.1925558835048442</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.3189010039119265</v>
+      </c>
+      <c r="C13">
         <v>0.1810989960880735</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5774563063621345</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.4062531423850144</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.17580276990864</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.4456143697630947</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.4217885678668151</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.322554717633241</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.1484017434098606</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.2963369957325623</v>
-      </c>
-      <c r="K13">
-        <v>-0.141752121668861</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.4996919939397557</v>
+      </c>
+      <c r="C14">
         <v>-0.4840174548073932</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.0980384574862611</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.5233786821854736</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.499552880289194</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.4003190300556199</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.07063743098748171</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.3741013081549411</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.2195164340912399</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2177411080359164</v>
-      </c>
-      <c r="K14">
-        <v>0.008669805236330291</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1025008829620063</v>
+      </c>
+      <c r="C15">
         <v>-0.5189162567097284</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.4950904548134488</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.3958566045798747</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.07509985646322692</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.369638882679196</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.2150540086154947</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.2132786825601712</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.0131322307120755</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.1900183524246998</v>
-      </c>
-      <c r="K15">
-        <v>0.05164518596345291</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.4488201521365681</v>
+      </c>
+      <c r="C16">
         <v>-0.349586301902994</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.1213701591401076</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.3233685800023153</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.168783705938614</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.1670083798832905</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.05940253338895618</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.1437480497478191</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.09791548864033359</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.04858052875379421</v>
-      </c>
-      <c r="K16">
-        <v>-0.6839200410816971</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.242513831393056</v>
+      </c>
+      <c r="C17">
         <v>-0.2022249077493669</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.04764003368566561</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.04586470763034212</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1805462056419046</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.02260437749487071</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.219059160893282</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.07256314349915421</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.5627763688287487</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.5105430972712256</v>
-      </c>
-      <c r="K17">
-        <v>0.3661644105663996</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.07162834525890099</v>
+      </c>
+      <c r="C18">
         <v>-0.0698530192035775</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.1565578940686692</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.0465926890681061</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.1950708493200466</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.04857483192591883</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.5867646804019842</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.4865547856979902</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.3421760989931642</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-0.09197663263687156</v>
-      </c>
-      <c r="K18">
-        <v>0.04590189724055455</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.1229737906733789</v>
+      </c>
+      <c r="C19">
         <v>-0.08017679246339643</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1614867459247563</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.01499072853062849</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.6203487837972744</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.4529706823026999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.3085919955978739</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.1255607360321619</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.01231779384526421</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.6176386691027431</v>
-      </c>
-      <c r="K19">
-        <v>0.1018366846824336</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.2921820578971051</v>
+      </c>
+      <c r="C20">
         <v>0.1456860405029773</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.4896534718249256</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.5836659942750486</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4392873075702227</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.005134575940186903</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.143013105817613</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.748333981075092</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2325319966547824</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.751666018924908</v>
-      </c>
-      <c r="K20">
-        <v>0.3542321777140501</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.4701730222575875</v>
+      </c>
+      <c r="C21">
         <v>0.6031464438423868</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4587677571375608</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.02461502550752503</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1624935553849511</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.7678144306424302</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.2520124462221205</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.7321855693575698</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3737126272813882</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.03543857523855404</v>
-      </c>
-      <c r="K21">
-        <v>0.4491130770919896</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.459291913084968</v>
+      </c>
+      <c r="C22">
         <v>0.02513918145493221</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1630177113323583</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.7683385865898373</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2525366021695277</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-0.7316614134101627</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.3742367832287954</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.03596273118596122</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.4496372330393967</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3.668338586589837</v>
-      </c>
-      <c r="K22">
-        <v>11.38540535219178</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.03131682845610018</v>
+      </c>
+      <c r="C23">
         <v>0.1065617014213259</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.7118825766788048</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1960805922584953</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.7881174233211951</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.317780773317763</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.02049327872507117</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3931812231283643</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.611882576678805</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11.32894934228074</v>
-      </c>
-      <c r="K23">
-        <v>-6.838117423321195</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.08402580579430891</v>
+      </c>
+      <c r="C24">
         <v>0.6893466810517879</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.1735446966314783</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.8106533189482121</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.295244877690746</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.0430291743520882</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.3706453275013473</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.589346681051788</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11.30641344665373</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6.860653318948212</v>
-      </c>
-      <c r="K24">
-        <v>1.189346681051785</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.6923483032634493</v>
+      </c>
+      <c r="C25">
         <v>0.1765463188431397</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.8076516967365506</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.2982464999024074</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.04002755214042675</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.3736469497130088</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.592348303263449</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11.30941506886539</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.857651696736551</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.192348303263447</v>
-      </c>
-      <c r="K25">
-        <v>2.792348303263455</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.0744091282154031</v>
+      </c>
+      <c r="C26">
         <v>-0.9097888873642872</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.1961093092746708</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.1421647427681634</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.2715097590852721</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.490211112635713</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>11.20727787823765</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-6.959788887364287</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.09021111263571</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.690211112635719</v>
-      </c>
-      <c r="K26">
-        <v>-3.190663107762081</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.9433179750111265</v>
+      </c>
+      <c r="C27">
         <v>0.1625802216278316</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.1756938304150026</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.2379806714384329</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.456682024988874</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>11.17374879059081</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-6.993317975011126</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.056682024988871</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.656682024988879</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-3.224192195408921</v>
-      </c>
-      <c r="K27">
-        <v>-6.143317975011132</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.2519909990449755</v>
+      </c>
+      <c r="C28">
         <v>-0.08628305299785866</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.3273914488555769</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>3.546092802406017</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11.26315956800796</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-6.903907197593982</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.146092802406015</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.746092802406023</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-3.134781417991777</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-6.053907197593988</v>
-      </c>
-      <c r="K28">
-        <v>1.446092802406012</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.1265355764893442</v>
+      </c>
+      <c r="C29">
         <v>0.2871389253640914</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3.505840278914532</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11.22290704451647</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-6.944159721085468</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.105840278914529</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.705840278914538</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-3.175033941483262</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-6.094159721085473</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.405840278914526</v>
-      </c>
-      <c r="K29">
-        <v>-0.1151064557530347</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.2793186490996533</v>
+      </c>
+      <c r="C30">
         <v>3.498020002650094</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11.21508676825203</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-6.951979997349906</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.098020002650091</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.6980200026501</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-3.1828542177477</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-6.101979997349912</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.398020002650088</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.1229267320174728</v>
-      </c>
-      <c r="K30">
-        <v>-1.241979997349912</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>3.425476029192464</v>
+      </c>
+      <c r="C31">
         <v>11.1425427947944</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-7.024523970807536</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.025476029192461</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.62547602919247</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-3.25539819120533</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-6.174523970807542</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.325476029192458</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.1954707054751026</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.314523970807542</v>
-      </c>
-      <c r="K31">
-        <v>0.3744760291924649</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>10.81063681088302</v>
+      </c>
+      <c r="C32">
         <v>-7.356429954718923</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.693570045281074</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.293570045281083</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-3.587304175116717</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-6.506429954718929</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.993570045281071</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.5273766893864897</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-1.646429954718929</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.04257004528107781</v>
-      </c>
-      <c r="K32">
-        <v>0.3935666666481373</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-7.67288364134646</v>
+      </c>
+      <c r="C33">
         <v>0.3771163586535374</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.977116358653547</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-3.903757861744253</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-6.822883641346466</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.6771163586535344</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.8438303760140263</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-1.962883641346466</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.2738836413464588</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.07711298002060069</v>
-      </c>
-      <c r="K33">
-        <v>0.3171163586535352</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.6369094483250879</v>
+      </c>
+      <c r="C34">
         <v>2.236909448325097</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-3.643964772072703</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-6.563090551674915</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.9369094483250848</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.5840372863424759</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-1.703090551674915</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.0140905516749083</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.3369060696921512</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.5769094483250856</v>
-      </c>
-      <c r="K34">
-        <v>0.08790944832509556</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>1.750223019004926</v>
+      </c>
+      <c r="C35">
         <v>-4.130651201392873</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-7.049776980995086</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.4502230190049143</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-1.070723715662646</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.189776980995086</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.5007769809950788</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-0.1497803596280193</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.09022301900491514</v>
-      </c>
-      <c r="J35">
-        <v>-0.398776980995075</v>
-      </c>
-      <c r="K35">
-        <v>-0.8497769809950826</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-4.011753464341698</v>
+      </c>
+      <c r="C36">
         <v>-6.93087924394391</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.5691207560560899</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.9518259786114708</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-2.07087924394391</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.3818792439439033</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.03088262257684377</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.2091207560560907</v>
-      </c>
-      <c r="I36">
-        <v>-0.2798792439438994</v>
-      </c>
-      <c r="J36">
-        <v>-0.7308792439439069</v>
-      </c>
-      <c r="K36">
-        <v>-0.6508792439439087</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-6.38973658553223</v>
+      </c>
+      <c r="C37">
         <v>1.11026341446777</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.4106833201997908</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-1.52973658553223</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.1592634144677767</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.5102600358348363</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.7502634144677707</v>
-      </c>
-      <c r="H37">
-        <v>0.2612634144677806</v>
-      </c>
-      <c r="I37">
-        <v>-0.189736585532227</v>
-      </c>
-      <c r="J37">
-        <v>-0.1097365855322287</v>
-      </c>
-      <c r="K37">
-        <v>-0.08973658553221853</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>1.004808795668506</v>
+      </c>
+      <c r="C38">
         <v>-0.5161379389990547</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1.635191204331494</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.05380879566851286</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.4048054170355724</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.6448087956685068</v>
-      </c>
-      <c r="G38">
-        <v>0.1558087956685167</v>
-      </c>
-      <c r="H38">
-        <v>-0.2951912043314908</v>
-      </c>
-      <c r="I38">
-        <v>-0.2151912043314926</v>
-      </c>
-      <c r="J38">
-        <v>-0.1951912043314823</v>
-      </c>
-      <c r="K38">
-        <v>-0.09519120433148805</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-0.5732226120640576</v>
+      </c>
+      <c r="C39">
         <v>-1.692275877396497</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.003275877396490101</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.3477207439705694</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.5877241226035039</v>
-      </c>
-      <c r="F39">
-        <v>0.09872412260351376</v>
-      </c>
-      <c r="G39">
-        <v>-0.3522758773964938</v>
-      </c>
-      <c r="H39">
-        <v>-0.2722758773964955</v>
-      </c>
-      <c r="I39">
-        <v>-0.2522758773964853</v>
-      </c>
-      <c r="J39">
-        <v>-0.152275877396491</v>
-      </c>
-      <c r="K39">
-        <v>-0.2522758773964853</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-1.524909387890541</v>
+      </c>
+      <c r="C40">
         <v>0.1640906121094658</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.5150872334765253</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.7550906121094598</v>
-      </c>
-      <c r="E40">
-        <v>0.2660906121094697</v>
-      </c>
-      <c r="F40">
-        <v>-0.1849093878905379</v>
-      </c>
-      <c r="G40">
-        <v>-0.1049093878905396</v>
-      </c>
-      <c r="H40">
-        <v>-0.0849093878905294</v>
-      </c>
-      <c r="I40">
-        <v>0.01509061210946492</v>
-      </c>
-      <c r="J40">
-        <v>-0.0849093878905294</v>
-      </c>
-      <c r="K40">
-        <v>-0.3049109755201115</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.3933087124880657</v>
+      </c>
+      <c r="C41">
         <v>0.7443053338551252</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.9843087124880596</v>
-      </c>
-      <c r="D41">
-        <v>0.4953087124880696</v>
-      </c>
-      <c r="E41">
-        <v>0.04430871248806201</v>
-      </c>
-      <c r="F41">
-        <v>0.1243087124880603</v>
-      </c>
-      <c r="G41">
-        <v>0.1443087124880705</v>
-      </c>
-      <c r="H41">
-        <v>0.2443087124880648</v>
-      </c>
-      <c r="I41">
-        <v>0.1443087124880705</v>
-      </c>
-      <c r="J41">
-        <v>-0.07569287514151168</v>
-      </c>
-      <c r="K41">
-        <v>0.144310997553363</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>1.980227446302227</v>
+      </c>
+      <c r="C42">
         <v>2.220230824935162</v>
-      </c>
-      <c r="C42">
-        <v>1.731230824935172</v>
-      </c>
-      <c r="D42">
-        <v>1.280230824935164</v>
-      </c>
-      <c r="E42">
-        <v>1.360230824935162</v>
-      </c>
-      <c r="F42">
-        <v>1.380230824935173</v>
-      </c>
-      <c r="G42">
-        <v>1.480230824935167</v>
-      </c>
-      <c r="H42">
-        <v>1.380230824935173</v>
-      </c>
-      <c r="I42">
-        <v>1.16022923730559</v>
-      </c>
-      <c r="J42">
-        <v>1.380233110000465</v>
-      </c>
-      <c r="K42">
-        <v>1.280227383010872</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.3925192495140906</v>
-      </c>
-      <c r="C43">
-        <v>-0.058480750485917</v>
-      </c>
-      <c r="D43">
-        <v>0.02151924951408128</v>
-      </c>
-      <c r="E43">
-        <v>0.04151924951409147</v>
-      </c>
-      <c r="F43">
-        <v>0.1415192495140858</v>
-      </c>
-      <c r="G43">
-        <v>0.04151924951409147</v>
-      </c>
-      <c r="H43">
-        <v>-0.1784823381154907</v>
-      </c>
-      <c r="I43">
-        <v>0.04152153457938401</v>
-      </c>
-      <c r="J43">
-        <v>-0.0584841924102093</v>
-      </c>
-      <c r="K43">
-        <v>0.1015192495140937</v>
+        <v>0.8815192495140807</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.1132553379850393</v>
-      </c>
-      <c r="C44">
-        <v>0.1932553379850376</v>
-      </c>
-      <c r="D44">
-        <v>0.2132553379850478</v>
-      </c>
-      <c r="E44">
-        <v>0.3132553379850421</v>
-      </c>
-      <c r="F44">
-        <v>0.2132553379850478</v>
-      </c>
-      <c r="G44">
-        <v>-0.006746249644534352</v>
-      </c>
-      <c r="H44">
-        <v>0.2132576230503404</v>
-      </c>
-      <c r="I44">
-        <v>0.113251896060747</v>
-      </c>
-      <c r="J44">
-        <v>0.2732553379850501</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.8750144670621453</v>
-      </c>
-      <c r="C45">
-        <v>0.8950144670621555</v>
-      </c>
-      <c r="D45">
-        <v>0.9950144670621498</v>
-      </c>
-      <c r="E45">
-        <v>0.8950144670621555</v>
-      </c>
-      <c r="F45">
-        <v>0.6750128794325734</v>
-      </c>
-      <c r="G45">
-        <v>0.895016752127448</v>
-      </c>
-      <c r="H45">
-        <v>0.7950110251378547</v>
-      </c>
-      <c r="I45">
-        <v>0.9550144670621578</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.4314358256754829</v>
-      </c>
-      <c r="C46">
-        <v>0.5314358256754772</v>
-      </c>
-      <c r="D46">
-        <v>0.4314358256754829</v>
-      </c>
-      <c r="E46">
-        <v>0.2114342380459007</v>
-      </c>
-      <c r="F46">
-        <v>0.4314381107407754</v>
-      </c>
-      <c r="G46">
-        <v>0.3314323837511821</v>
-      </c>
-      <c r="H46">
-        <v>0.4914358256754852</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.02922200567268469</v>
-      </c>
-      <c r="C47">
-        <v>-0.129222005672679</v>
-      </c>
-      <c r="D47">
-        <v>-0.3492235933022612</v>
-      </c>
-      <c r="E47">
-        <v>-0.1292197206073865</v>
-      </c>
-      <c r="F47">
-        <v>-0.2292254475969798</v>
-      </c>
-      <c r="G47">
-        <v>-0.06922200567267674</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.02670664067814384</v>
-      </c>
-      <c r="C48">
-        <v>-0.246708228307726</v>
-      </c>
-      <c r="D48">
-        <v>-0.0267043556128513</v>
-      </c>
-      <c r="E48">
-        <v>-0.1267100826024446</v>
-      </c>
-      <c r="F48">
-        <v>0.03329335932185844</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.3283108325625718</v>
-      </c>
-      <c r="C49">
-        <v>-0.1083069598676971</v>
-      </c>
-      <c r="D49">
-        <v>-0.2083126868572904</v>
-      </c>
-      <c r="E49">
-        <v>-0.04830924493298736</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.1236027424349175</v>
-      </c>
-      <c r="C50">
-        <v>-0.2236084694245108</v>
-      </c>
-      <c r="D50">
-        <v>-0.06360502750020772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.3154970214097745</v>
-      </c>
-      <c r="C51">
-        <v>-0.1554935794854714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.08316376585921856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>11.30641344665373</v>
       </c>
       <c r="K24">
-        <v>-6.860653318948212</v>
+        <v>-10.42667766443478</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>11.30941506886539</v>
       </c>
       <c r="J25">
-        <v>-6.857651696736551</v>
+        <v>-10.42367604222312</v>
       </c>
       <c r="K25">
-        <v>1.192348303263447</v>
+        <v>3.722140930129188</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>11.20727787823765</v>
       </c>
       <c r="I26">
-        <v>-6.959788887364287</v>
+        <v>-10.52581323285086</v>
       </c>
       <c r="J26">
-        <v>1.09021111263571</v>
+        <v>3.620003739501452</v>
       </c>
       <c r="K26">
-        <v>2.690211112635719</v>
+        <v>5.647005785655746</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>11.17374879059081</v>
       </c>
       <c r="H27">
-        <v>-6.993317975011126</v>
+        <v>-10.5593423204977</v>
       </c>
       <c r="I27">
-        <v>1.056682024988871</v>
+        <v>3.586474651854613</v>
       </c>
       <c r="J27">
-        <v>2.656682024988879</v>
+        <v>5.613476698008907</v>
       </c>
       <c r="K27">
-        <v>-3.224192195408921</v>
+        <v>-2.976209967492681</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>11.26315956800796</v>
       </c>
       <c r="G28">
-        <v>-6.903907197593982</v>
+        <v>-10.46993154308055</v>
       </c>
       <c r="H28">
-        <v>1.146092802406015</v>
+        <v>3.675885429271756</v>
       </c>
       <c r="I28">
-        <v>2.746092802406023</v>
+        <v>5.702887475426051</v>
       </c>
       <c r="J28">
-        <v>-3.134781417991777</v>
+        <v>-2.886799190075538</v>
       </c>
       <c r="K28">
-        <v>-6.053907197593988</v>
+        <v>-5.861013661827103</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>11.22290704451647</v>
       </c>
       <c r="F29">
-        <v>-6.944159721085468</v>
+        <v>-10.51018406657204</v>
       </c>
       <c r="G29">
-        <v>1.105840278914529</v>
+        <v>3.635632905780271</v>
       </c>
       <c r="H29">
-        <v>2.705840278914538</v>
+        <v>5.662634951934566</v>
       </c>
       <c r="I29">
-        <v>-3.175033941483262</v>
+        <v>-2.927051713567023</v>
       </c>
       <c r="J29">
-        <v>-6.094159721085473</v>
+        <v>-5.901266185318589</v>
       </c>
       <c r="K29">
-        <v>1.405840278914526</v>
+        <v>2.056557596745962</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>11.21508676825203</v>
       </c>
       <c r="E30">
-        <v>-6.951979997349906</v>
+        <v>-10.51800434283648</v>
       </c>
       <c r="F30">
-        <v>1.098020002650091</v>
+        <v>3.627812629515833</v>
       </c>
       <c r="G30">
-        <v>2.6980200026501</v>
+        <v>5.654814675670127</v>
       </c>
       <c r="H30">
-        <v>-3.1828542177477</v>
+        <v>-2.934871989831461</v>
       </c>
       <c r="I30">
-        <v>-6.101979997349912</v>
+        <v>-5.909086461583027</v>
       </c>
       <c r="J30">
-        <v>1.398020002650088</v>
+        <v>2.048737320481524</v>
       </c>
       <c r="K30">
-        <v>-0.1229267320174728</v>
+        <v>0.4327147679773617</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>11.1425427947944</v>
       </c>
       <c r="D31">
-        <v>-7.024523970807536</v>
+        <v>-10.59054831629411</v>
       </c>
       <c r="E31">
-        <v>1.025476029192461</v>
+        <v>3.555268656058203</v>
       </c>
       <c r="F31">
-        <v>2.62547602919247</v>
+        <v>5.582270702212497</v>
       </c>
       <c r="G31">
-        <v>-3.25539819120533</v>
+        <v>-3.007415963289091</v>
       </c>
       <c r="H31">
-        <v>-6.174523970807542</v>
+        <v>-5.981630435040657</v>
       </c>
       <c r="I31">
-        <v>1.325476029192458</v>
+        <v>1.976193347023894</v>
       </c>
       <c r="J31">
-        <v>-0.1954707054751026</v>
+        <v>0.3601707945197319</v>
       </c>
       <c r="K31">
-        <v>-1.314523970807542</v>
+        <v>-0.5925567769544813</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>10.81063681088302</v>
       </c>
       <c r="C32">
-        <v>-7.356429954718923</v>
+        <v>-10.92245430020549</v>
       </c>
       <c r="D32">
-        <v>0.693570045281074</v>
+        <v>3.223362672146816</v>
       </c>
       <c r="E32">
-        <v>2.293570045281083</v>
+        <v>5.25036471830111</v>
       </c>
       <c r="F32">
-        <v>-3.587304175116717</v>
+        <v>-3.339321947200478</v>
       </c>
       <c r="G32">
-        <v>-6.506429954718929</v>
+        <v>-6.313536418952044</v>
       </c>
       <c r="H32">
-        <v>0.993570045281071</v>
+        <v>1.644287363112507</v>
       </c>
       <c r="I32">
-        <v>-0.5273766893864897</v>
+        <v>0.02826481060834481</v>
       </c>
       <c r="J32">
-        <v>-1.646429954718929</v>
+        <v>-0.9244627608658684</v>
       </c>
       <c r="K32">
-        <v>0.04257004528107781</v>
+        <v>-1.144358446982199</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-7.67288364134646</v>
+        <v>-11.95530922846234</v>
       </c>
       <c r="C33">
-        <v>0.3771163586535374</v>
+        <v>2.19050774388997</v>
       </c>
       <c r="D33">
-        <v>1.977116358653547</v>
+        <v>4.217509790044264</v>
       </c>
       <c r="E33">
-        <v>-3.903757861744253</v>
+        <v>-4.372176875457324</v>
       </c>
       <c r="F33">
-        <v>-6.822883641346466</v>
+        <v>-7.34639134720889</v>
       </c>
       <c r="G33">
-        <v>0.6771163586535344</v>
+        <v>0.611432434855661</v>
       </c>
       <c r="H33">
-        <v>-0.8438303760140263</v>
+        <v>-1.004590117648501</v>
       </c>
       <c r="I33">
-        <v>-1.962883641346466</v>
+        <v>-1.957317689122714</v>
       </c>
       <c r="J33">
-        <v>-0.2738836413464588</v>
+        <v>-2.177213375239045</v>
       </c>
       <c r="K33">
-        <v>0.07711298002060069</v>
+        <v>-0.1353519709171249</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.6369094483250879</v>
+        <v>3.268665508691584</v>
       </c>
       <c r="C34">
-        <v>2.236909448325097</v>
+        <v>5.295667554845878</v>
       </c>
       <c r="D34">
-        <v>-3.643964772072703</v>
+        <v>-3.29401911065571</v>
       </c>
       <c r="E34">
-        <v>-6.563090551674915</v>
+        <v>-6.268233582407277</v>
       </c>
       <c r="F34">
-        <v>0.9369094483250848</v>
+        <v>1.689590199657275</v>
       </c>
       <c r="G34">
-        <v>-0.5840372863424759</v>
+        <v>0.07356764715311254</v>
       </c>
       <c r="H34">
-        <v>-1.703090551674915</v>
+        <v>-0.8791599243211007</v>
       </c>
       <c r="I34">
-        <v>-0.0140905516749083</v>
+        <v>-1.099055610437431</v>
       </c>
       <c r="J34">
-        <v>0.3369060696921512</v>
+        <v>0.9428057938844886</v>
       </c>
       <c r="K34">
-        <v>0.5769094483250856</v>
+        <v>1.168734197848267</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.750223019004926</v>
+        <v>4.950828583147882</v>
       </c>
       <c r="C35">
-        <v>-4.130651201392873</v>
+        <v>-3.638858082353706</v>
       </c>
       <c r="D35">
-        <v>-7.049776980995086</v>
+        <v>-6.613072554105272</v>
       </c>
       <c r="E35">
-        <v>0.4502230190049143</v>
+        <v>1.344751227959279</v>
       </c>
       <c r="F35">
-        <v>-1.070723715662646</v>
+        <v>-0.2712713245448828</v>
       </c>
       <c r="G35">
-        <v>-2.189776980995086</v>
+        <v>-1.223998896019096</v>
       </c>
       <c r="H35">
-        <v>-0.5007769809950788</v>
+        <v>-1.443894582135427</v>
       </c>
       <c r="I35">
-        <v>-0.1497803596280193</v>
+        <v>0.5979668221864933</v>
       </c>
       <c r="J35">
-        <v>0.09022301900491514</v>
+        <v>0.8238952261502714</v>
+      </c>
+      <c r="K35">
+        <v>-0.4533206709007789</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-4.011753464341698</v>
+        <v>-4.068997055914149</v>
       </c>
       <c r="C36">
-        <v>-6.93087924394391</v>
+        <v>-7.043211527665715</v>
       </c>
       <c r="D36">
-        <v>0.5691207560560899</v>
+        <v>0.9146122543988354</v>
       </c>
       <c r="E36">
-        <v>-0.9518259786114708</v>
+        <v>-0.7014102981053266</v>
       </c>
       <c r="F36">
-        <v>-2.07087924394391</v>
+        <v>-1.65413786957954</v>
       </c>
       <c r="G36">
-        <v>-0.3818792439439033</v>
+        <v>-1.87403355569587</v>
       </c>
       <c r="H36">
-        <v>-0.03088262257684377</v>
+        <v>0.1678278486260495</v>
       </c>
       <c r="I36">
-        <v>0.2091207560560907</v>
+        <v>0.3937562525898276</v>
+      </c>
+      <c r="J36">
+        <v>-0.8834596444612227</v>
+      </c>
+      <c r="K36">
+        <v>-0.5704286793306007</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-6.38973658553223</v>
+        <v>-6.746843049765346</v>
       </c>
       <c r="C37">
-        <v>1.11026341446777</v>
+        <v>1.210980732299205</v>
       </c>
       <c r="D37">
-        <v>-0.4106833201997908</v>
+        <v>-0.4050418202049567</v>
       </c>
       <c r="E37">
-        <v>-1.52973658553223</v>
+        <v>-1.35776939167917</v>
       </c>
       <c r="F37">
-        <v>0.1592634144677767</v>
+        <v>-1.577665077795501</v>
       </c>
       <c r="G37">
-        <v>0.5102600358348363</v>
+        <v>0.4641963265264194</v>
       </c>
       <c r="H37">
-        <v>0.7502634144677707</v>
+        <v>0.6901247304901975</v>
+      </c>
+      <c r="I37">
+        <v>-0.5870911665608528</v>
+      </c>
+      <c r="J37">
+        <v>-0.2740602014302308</v>
+      </c>
+      <c r="K37">
+        <v>-0.7764753152880101</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.004808795668506</v>
+        <v>1.785526113499941</v>
       </c>
       <c r="C38">
-        <v>-0.5161379389990547</v>
+        <v>0.1695035609957792</v>
       </c>
       <c r="D38">
-        <v>-1.635191204331494</v>
+        <v>-0.783224010478434</v>
       </c>
       <c r="E38">
-        <v>0.05380879566851286</v>
+        <v>-1.003119696594765</v>
       </c>
       <c r="F38">
-        <v>0.4048054170355724</v>
+        <v>1.038741707727155</v>
       </c>
       <c r="G38">
-        <v>0.6448087956685068</v>
+        <v>1.264670111690933</v>
+      </c>
+      <c r="H38">
+        <v>-0.01254578536011693</v>
+      </c>
+      <c r="I38">
+        <v>0.3004851797705051</v>
+      </c>
+      <c r="J38">
+        <v>-0.2019299340872742</v>
+      </c>
+      <c r="K38">
+        <v>0.4497033133215503</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.5732226120640576</v>
+        <v>-0.03967578553597981</v>
       </c>
       <c r="C39">
-        <v>-1.692275877396497</v>
+        <v>-0.992403357010193</v>
       </c>
       <c r="D39">
-        <v>-0.003275877396490101</v>
+        <v>-1.212299043126524</v>
       </c>
       <c r="E39">
-        <v>0.3477207439705694</v>
+        <v>0.8295623611953963</v>
       </c>
       <c r="F39">
-        <v>0.5877241226035039</v>
+        <v>1.055490765159175</v>
+      </c>
+      <c r="G39">
+        <v>-0.2217251318918759</v>
+      </c>
+      <c r="H39">
+        <v>0.09130583323874608</v>
+      </c>
+      <c r="I39">
+        <v>-0.4111092806190332</v>
+      </c>
+      <c r="J39">
+        <v>0.2405239667897913</v>
+      </c>
+      <c r="K39">
+        <v>0.0476243477478103</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.524909387890541</v>
+        <v>-0.9569421940374809</v>
       </c>
       <c r="C40">
-        <v>0.1640906121094658</v>
+        <v>-1.176837880153812</v>
       </c>
       <c r="D40">
-        <v>0.5150872334765253</v>
+        <v>0.8650235241681083</v>
       </c>
       <c r="E40">
-        <v>0.7550906121094598</v>
+        <v>1.090951928131886</v>
+      </c>
+      <c r="F40">
+        <v>-0.1862639689191639</v>
+      </c>
+      <c r="G40">
+        <v>0.1267669962114581</v>
+      </c>
+      <c r="H40">
+        <v>-0.3756481176463212</v>
+      </c>
+      <c r="I40">
+        <v>0.2759851297625033</v>
+      </c>
+      <c r="J40">
+        <v>0.08308551072052231</v>
+      </c>
+      <c r="K40">
+        <v>-0.4276559378643726</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.3933087124880657</v>
+        <v>-1.000053692027457</v>
       </c>
       <c r="C41">
-        <v>0.7443053338551252</v>
+        <v>1.041807712294463</v>
       </c>
       <c r="D41">
-        <v>0.9843087124880596</v>
+        <v>1.267736116258241</v>
+      </c>
+      <c r="E41">
+        <v>-0.009479780792808909</v>
+      </c>
+      <c r="F41">
+        <v>0.3035511843378131</v>
+      </c>
+      <c r="G41">
+        <v>-0.1988639295199662</v>
+      </c>
+      <c r="H41">
+        <v>0.4527693178888583</v>
+      </c>
+      <c r="I41">
+        <v>0.2598696988468773</v>
+      </c>
+      <c r="J41">
+        <v>-0.2508717497380176</v>
+      </c>
+      <c r="K41">
+        <v>-0.04547101714081951</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.980227446302227</v>
+        <v>1.38437779088911</v>
       </c>
       <c r="C42">
-        <v>2.220230824935162</v>
+        <v>1.610306194852888</v>
+      </c>
+      <c r="D42">
+        <v>0.3330902978018372</v>
+      </c>
+      <c r="E42">
+        <v>0.6461212629324592</v>
+      </c>
+      <c r="F42">
+        <v>0.1437061490746799</v>
+      </c>
+      <c r="G42">
+        <v>0.7953393964835044</v>
+      </c>
+      <c r="H42">
+        <v>0.6024397774415234</v>
+      </c>
+      <c r="I42">
+        <v>0.09169832885662849</v>
+      </c>
+      <c r="J42">
+        <v>0.2970990614538266</v>
+      </c>
+      <c r="K42">
+        <v>-0.1093868805094843</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.8815192495140807</v>
+        <v>2.568311565460754</v>
+      </c>
+      <c r="C43">
+        <v>1.291095668409704</v>
+      </c>
+      <c r="D43">
+        <v>1.604126633540326</v>
+      </c>
+      <c r="E43">
+        <v>1.101711519682546</v>
+      </c>
+      <c r="F43">
+        <v>1.753344767091371</v>
+      </c>
+      <c r="G43">
+        <v>1.56044514804939</v>
+      </c>
+      <c r="H43">
+        <v>1.049703699464495</v>
+      </c>
+      <c r="I43">
+        <v>1.255104432061693</v>
+      </c>
+      <c r="J43">
+        <v>0.8486184900983822</v>
+      </c>
+      <c r="K43">
+        <v>1.283722647366724</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.06590207884413968</v>
+      </c>
+      <c r="C44">
+        <v>0.3789330439747617</v>
+      </c>
+      <c r="D44">
+        <v>-0.1234820698830176</v>
+      </c>
+      <c r="E44">
+        <v>0.5281511775258069</v>
+      </c>
+      <c r="F44">
+        <v>0.3352515584838259</v>
+      </c>
+      <c r="G44">
+        <v>-0.175489890101069</v>
+      </c>
+      <c r="H44">
+        <v>0.02991084249612908</v>
+      </c>
+      <c r="I44">
+        <v>-0.3765750994671818</v>
+      </c>
+      <c r="J44">
+        <v>0.05852905780115958</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.7005922962224502</v>
+      </c>
+      <c r="C45">
+        <v>0.198177182364671</v>
+      </c>
+      <c r="D45">
+        <v>0.8498104297734954</v>
+      </c>
+      <c r="E45">
+        <v>0.6569108107315145</v>
+      </c>
+      <c r="F45">
+        <v>0.1461693621466196</v>
+      </c>
+      <c r="G45">
+        <v>0.3515700947438177</v>
+      </c>
+      <c r="H45">
+        <v>-0.05491584721949322</v>
+      </c>
+      <c r="I45">
+        <v>0.3801883100488482</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.6769520741007256</v>
+      </c>
+      <c r="C46">
+        <v>1.32858532150955</v>
+      </c>
+      <c r="D46">
+        <v>1.135685702467569</v>
+      </c>
+      <c r="E46">
+        <v>0.6249442538826742</v>
+      </c>
+      <c r="F46">
+        <v>0.8303449864798722</v>
+      </c>
+      <c r="G46">
+        <v>0.4238590445165613</v>
+      </c>
+      <c r="H46">
+        <v>0.8589632017849027</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>1.004139131231226</v>
+      </c>
+      <c r="C47">
+        <v>0.8112395121892447</v>
+      </c>
+      <c r="D47">
+        <v>0.3004980636043498</v>
+      </c>
+      <c r="E47">
+        <v>0.5058987962015479</v>
+      </c>
+      <c r="F47">
+        <v>0.09941285423823698</v>
+      </c>
+      <c r="G47">
+        <v>0.5345170115065784</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.1605125027665679</v>
+      </c>
+      <c r="C48">
+        <v>-0.350228945818327</v>
+      </c>
+      <c r="D48">
+        <v>-0.1448282132211289</v>
+      </c>
+      <c r="E48">
+        <v>-0.5513141551844398</v>
+      </c>
+      <c r="F48">
+        <v>-0.1162099979160984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.1674057910879981</v>
+      </c>
+      <c r="C49">
+        <v>0.03799494150919998</v>
+      </c>
+      <c r="D49">
+        <v>-0.3684910004541109</v>
+      </c>
+      <c r="E49">
+        <v>0.06661315681423048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.120096269830519</v>
+      </c>
+      <c r="C50">
+        <v>-0.5265822117938299</v>
+      </c>
+      <c r="D50">
+        <v>-0.09147805452548849</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-0.4929177499008816</v>
+      </c>
+      <c r="C51">
+        <v>-0.05781359263254018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.1189820961875583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.4039974597626313</v>
       </c>
-      <c r="G2">
-        <v>-0.3218519262785449</v>
-      </c>
-      <c r="H2">
-        <v>-0.4599467470292111</v>
-      </c>
-      <c r="I2">
-        <v>1.023968702404825</v>
-      </c>
-      <c r="J2">
-        <v>0.3153482797640337</v>
-      </c>
-      <c r="K2">
-        <v>0.9612027218905823</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.2034542044581115</v>
       </c>
-      <c r="I3">
-        <v>0.8493086465846602</v>
-      </c>
-      <c r="J3">
-        <v>-0.5722856535893669</v>
-      </c>
-      <c r="K3">
-        <v>-0.3722856535893669</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.1753124225805166</v>
       </c>
-      <c r="G4">
-        <v>0.8211668647070652</v>
-      </c>
-      <c r="H4">
-        <v>-0.6004274354669619</v>
-      </c>
-      <c r="I4">
-        <v>-0.4004274354669619</v>
-      </c>
-      <c r="J4">
-        <v>-0.6353468026786132</v>
-      </c>
-      <c r="K4">
-        <v>-0.4004274354669619</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-0.6350382151471835</v>
       </c>
-      <c r="I5">
-        <v>-0.4001188479355322</v>
-      </c>
-      <c r="J5">
-        <v>0.5971295488542906</v>
-      </c>
-      <c r="K5">
-        <v>-0.8141557272102987</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-0.5116692437199688</v>
       </c>
-      <c r="G6">
-        <v>-0.2767498765083175</v>
-      </c>
-      <c r="H6">
-        <v>0.7204985202815053</v>
-      </c>
-      <c r="I6">
-        <v>-0.690786755783084</v>
-      </c>
-      <c r="J6">
-        <v>0.3244965225259151</v>
-      </c>
-      <c r="K6">
-        <v>-0.2767498765083175</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>0.0403024315277222</v>
       </c>
-      <c r="I7">
-        <v>-0.5609439675065104</v>
-      </c>
-      <c r="J7">
-        <v>-0.2609439675065104</v>
-      </c>
-      <c r="K7">
-        <v>-0.4609439675065104</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.2189121648021367</v>
       </c>
-      <c r="G8">
-        <v>-0.3823342342320959</v>
-      </c>
-      <c r="H8">
-        <v>-0.08233423423209588</v>
-      </c>
-      <c r="I8">
-        <v>-0.2823342342320959</v>
-      </c>
-      <c r="J8">
-        <v>0.3579948078902671</v>
-      </c>
-      <c r="K8">
-        <v>-0.7823342342320959</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.4803478373410563</v>
       </c>
-      <c r="I9">
-        <v>-0.6599812047813066</v>
-      </c>
-      <c r="J9">
-        <v>-0.4599812047813066</v>
-      </c>
-      <c r="K9">
-        <v>0.04001879521869339</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.5487958260384218</v>
       </c>
-      <c r="G10">
-        <v>-0.5915332160839413</v>
-      </c>
-      <c r="H10">
-        <v>-0.3915332160839412</v>
-      </c>
-      <c r="I10">
-        <v>0.1084667839160588</v>
-      </c>
-      <c r="J10">
-        <v>0.5048240941901199</v>
-      </c>
-      <c r="K10">
-        <v>-0.4788853545570291</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.5746290353561656</v>
       </c>
-      <c r="I11">
-        <v>-0.4090804133909833</v>
-      </c>
-      <c r="J11">
-        <v>0.172975498902671</v>
-      </c>
-      <c r="K11">
-        <v>-0.4484416407690637</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.6216104464571182</v>
       </c>
-      <c r="G12">
-        <v>-0.3620990022900307</v>
-      </c>
-      <c r="H12">
-        <v>0.2199569100036236</v>
-      </c>
-      <c r="I12">
-        <v>-0.4014602296681111</v>
-      </c>
-      <c r="J12">
-        <v>-0.3776344277718315</v>
-      </c>
-      <c r="K12">
-        <v>-0.2784005775382574</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.4217885678668151</v>
       </c>
-      <c r="I13">
-        <v>-0.322554717633241</v>
-      </c>
-      <c r="J13">
-        <v>0.1484017434098606</v>
-      </c>
-      <c r="K13">
-        <v>-0.2963369957325623</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.499552880289194</v>
       </c>
-      <c r="G14">
-        <v>-0.4003190300556199</v>
-      </c>
-      <c r="H14">
-        <v>0.07063743098748171</v>
-      </c>
-      <c r="I14">
-        <v>-0.3741013081549411</v>
-      </c>
-      <c r="J14">
-        <v>-0.2195164340912399</v>
-      </c>
-      <c r="K14">
-        <v>-0.2177411080359164</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.2150540086154947</v>
       </c>
-      <c r="I15">
-        <v>-0.2132786825601712</v>
-      </c>
-      <c r="J15">
-        <v>0.0131322307120755</v>
-      </c>
-      <c r="K15">
-        <v>-0.1900183524246998</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.168783705938614</v>
       </c>
-      <c r="G16">
-        <v>-0.1670083798832905</v>
-      </c>
-      <c r="H16">
-        <v>0.05940253338895618</v>
-      </c>
-      <c r="I16">
-        <v>-0.1437480497478191</v>
-      </c>
-      <c r="J16">
-        <v>0.09791548864033359</v>
-      </c>
-      <c r="K16">
-        <v>-0.04858052875379421</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.219059160893282</v>
       </c>
-      <c r="I17">
-        <v>0.07256314349915421</v>
-      </c>
-      <c r="J17">
-        <v>-0.5627763688287487</v>
-      </c>
-      <c r="K17">
-        <v>0.5105430972712256</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.3421760989931642</v>
       </c>
-      <c r="K18">
-        <v>-0.09197663263687156</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.3085919955978739</v>
       </c>
-      <c r="I19">
-        <v>-0.1255607360321619</v>
-      </c>
-      <c r="J19">
-        <v>0.01231779384526421</v>
-      </c>
-      <c r="K19">
-        <v>0.6176386691027431</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.2325319966547824</v>
       </c>
-      <c r="K20">
-        <v>-0.751666018924908</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.2520124462221205</v>
       </c>
-      <c r="I21">
-        <v>-0.7321855693575698</v>
-      </c>
-      <c r="J21">
-        <v>0.3737126272813882</v>
-      </c>
-      <c r="K21">
-        <v>0.03543857523855404</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.4496372330393967</v>
       </c>
-      <c r="K22">
-        <v>3.668338586589837</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.3931812231283643</v>
       </c>
-      <c r="J23">
-        <v>3.611882576678805</v>
-      </c>
-      <c r="K23">
-        <v>11.32894934228074</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.3706453275013473</v>
       </c>
-      <c r="I24">
-        <v>3.589346681051788</v>
-      </c>
-      <c r="J24">
-        <v>11.30641344665373</v>
-      </c>
-      <c r="K24">
-        <v>-10.42667766443478</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>3.620003739501452</v>
       </c>
-      <c r="K26">
-        <v>5.647005785655746</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>3.586474651854613</v>
       </c>
-      <c r="J27">
-        <v>5.613476698008907</v>
-      </c>
-      <c r="K27">
-        <v>-2.976209967492681</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>3.675885429271756</v>
       </c>
-      <c r="I28">
-        <v>5.702887475426051</v>
-      </c>
-      <c r="J28">
-        <v>-2.886799190075538</v>
-      </c>
-      <c r="K28">
-        <v>-5.861013661827103</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>2.048737320481524</v>
       </c>
-      <c r="K30">
-        <v>0.4327147679773617</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>1.976193347023894</v>
       </c>
-      <c r="J31">
-        <v>0.3601707945197319</v>
-      </c>
-      <c r="K31">
-        <v>-0.5925567769544813</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>1.644287363112507</v>
       </c>
-      <c r="I32">
-        <v>0.02826481060834481</v>
-      </c>
-      <c r="J32">
-        <v>-0.9244627608658684</v>
-      </c>
-      <c r="K32">
-        <v>-1.144358446982199</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.9428057938844886</v>
       </c>
-      <c r="K34">
-        <v>1.168734197848267</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.5979668221864933</v>
       </c>
-      <c r="J35">
-        <v>0.8238952261502714</v>
-      </c>
-      <c r="K35">
-        <v>-0.4533206709007789</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>0.1678278486260495</v>
       </c>
-      <c r="I36">
-        <v>0.3937562525898276</v>
-      </c>
-      <c r="J36">
-        <v>-0.8834596444612227</v>
-      </c>
-      <c r="K36">
-        <v>-0.5704286793306007</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-0.2019299340872742</v>
       </c>
-      <c r="K38">
-        <v>0.4497033133215503</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>-0.4111092806190332</v>
       </c>
-      <c r="J39">
-        <v>0.2405239667897913</v>
-      </c>
-      <c r="K39">
-        <v>0.0476243477478103</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.3756481176463212</v>
       </c>
-      <c r="I40">
-        <v>0.2759851297625033</v>
-      </c>
-      <c r="J40">
-        <v>0.08308551072052231</v>
-      </c>
-      <c r="K40">
-        <v>-0.4276559378643726</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.2970990614538266</v>
       </c>
-      <c r="K42">
-        <v>-0.1093868805094843</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>1.255104432061693</v>
       </c>
-      <c r="J43">
-        <v>0.8486184900983822</v>
-      </c>
-      <c r="K43">
-        <v>1.283722647366724</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>0.02991084249612908</v>
-      </c>
-      <c r="I44">
-        <v>-0.3765750994671818</v>
-      </c>
-      <c r="J44">
-        <v>0.05852905780115958</v>
       </c>
     </row>
     <row r="45" spans="1:11">
